--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140489.5066559917</v>
+        <v>163373.1730173262</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2017271.270587276</v>
+        <v>4588310.722907443</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24009006.93276712</v>
+        <v>23154748.01543935</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4421509.886621368</v>
+        <v>4643493.355989313</v>
       </c>
     </row>
     <row r="11">
@@ -8222,10 +8224,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
-        <v>262.1171336583936</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N5" t="n">
-        <v>260.6727596612894</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O5" t="n">
         <v>246.758517458259</v>
@@ -8295,22 +8297,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>158.8643559162101</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L6" t="n">
-        <v>156.5283879628043</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M6" t="n">
-        <v>158.8073274317979</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N6" t="n">
-        <v>145.2543769669952</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O6" t="n">
-        <v>160.2613470196622</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P6" t="n">
-        <v>152.4484465568465</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8459,10 +8461,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
-        <v>262.1171336583936</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N8" t="n">
-        <v>260.6727596612894</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
         <v>246.758517458259</v>
@@ -8532,22 +8534,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>158.8643559162101</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>156.5283879628043</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>158.8073274317979</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>145.2543769669952</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>160.2613470196622</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>152.4484465568465</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8690,25 +8692,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L11" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M11" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N11" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O11" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q11" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8769,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L12" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M12" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P12" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8927,25 +8929,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L14" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M14" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N14" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O14" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q14" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9006,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L15" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M15" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P15" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9164,25 +9166,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L17" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M17" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N17" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O17" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P17" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q17" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9243,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L18" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M18" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P18" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M19" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N19" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O19" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9401,25 +9403,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L20" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M20" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N20" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O20" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P20" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9480,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L21" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M21" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P21" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M22" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N22" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O22" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9638,25 +9640,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L23" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M23" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N23" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O23" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P23" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q23" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9717,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L24" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M24" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P24" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M25" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N25" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O25" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9875,25 +9877,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L26" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M26" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N26" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O26" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P26" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q26" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9954,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L27" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M27" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P27" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M28" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N28" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10112,25 +10114,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L29" t="n">
-        <v>206.8897655221818</v>
+        <v>85.78632439852493</v>
       </c>
       <c r="M29" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N29" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O29" t="n">
-        <v>194.5092889627086</v>
+        <v>65.20892354519972</v>
       </c>
       <c r="P29" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095632</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10191,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L30" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M30" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P30" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>105.2836065989273</v>
+        <v>79.25802099849831</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250526</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>87.8197306940173</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10349,25 +10351,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L32" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M32" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N32" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O32" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P32" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q32" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10428,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L33" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M33" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P33" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M34" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N34" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O34" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10586,25 +10588,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L35" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M35" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N35" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O35" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10665,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L36" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M36" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P36" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N37" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10823,25 +10825,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L38" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M38" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N38" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O38" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q38" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10902,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L39" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M39" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P39" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O40" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11060,25 +11062,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>203.4233583632196</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L41" t="n">
-        <v>206.8897655221818</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M41" t="n">
-        <v>191.1777440165516</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N41" t="n">
-        <v>188.5854965301939</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O41" t="n">
-        <v>194.5092889627086</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11139,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>123.9591504587257</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L42" t="n">
-        <v>109.5940316553169</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M42" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>108.831228312213</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P42" t="n">
-        <v>111.1712421347601</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.831616742848</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K44" t="n">
-        <v>203.4233583632196</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L44" t="n">
-        <v>206.8897655221818</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M44" t="n">
-        <v>191.1777440165516</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N44" t="n">
-        <v>188.5854965301939</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O44" t="n">
-        <v>194.5092889627086</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11376,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>123.9591504587257</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L45" t="n">
-        <v>109.5940316553169</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M45" t="n">
-        <v>104.0371473715302</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>89.03459321428942</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>108.831228312213</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>111.1712421347601</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.831616742848</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -22796,22 +22798,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>419.1372257337943</v>
+        <v>419.2448920946117</v>
       </c>
       <c r="H5" t="n">
-        <v>350.0840728010472</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I5" t="n">
-        <v>252.5390011750733</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J5" t="n">
-        <v>102.1633490996273</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K5" t="n">
-        <v>44.7678260839346</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22820,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.82072992502536</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>58.0961346578143</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q5" t="n">
-        <v>122.0060719774896</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R5" t="n">
-        <v>213.6669190178523</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S5" t="n">
-        <v>234.3316595809324</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T5" t="n">
-        <v>223.7749849055099</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U5" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22875,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.9046118134526</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H6" t="n">
-        <v>127.2808586212757</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I6" t="n">
-        <v>112.8724349482959</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J6" t="n">
-        <v>67.59235497006948</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.29425231795664</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R6" t="n">
-        <v>144.6542915277517</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S6" t="n">
-        <v>194.5628574600357</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T6" t="n">
-        <v>215.61586546681</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22954,49 +22956,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.8349197050291</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H7" t="n">
-        <v>167.0170666797881</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I7" t="n">
-        <v>168.8870673881104</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J7" t="n">
-        <v>129.7236433787886</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K7" t="n">
-        <v>82.61516433249618</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L7" t="n">
-        <v>52.09548622449577</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M7" t="n">
-        <v>46.24466908004986</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N7" t="n">
-        <v>37.04796687835205</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O7" t="n">
-        <v>56.43963860165199</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P7" t="n">
-        <v>74.70280003544025</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.4497818638882</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R7" t="n">
-        <v>209.4615981681609</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S7" t="n">
-        <v>237.7758219951765</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T7" t="n">
-        <v>224.3347225012506</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23033,22 +23035,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>419.1372257337943</v>
+        <v>419.2448920946117</v>
       </c>
       <c r="H8" t="n">
-        <v>350.0840728010472</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>252.5390011750733</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>102.1633490996273</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>44.76782608393461</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23057,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.82072992502536</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>58.0961346578143</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>122.0060719774896</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>213.6669190178523</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>234.3316595809324</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>223.7749849055099</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23112,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9046118134526</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.2808586212757</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>112.8724349482959</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>67.59235497006948</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.29425231795664</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>144.6542915277517</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>194.5628574600357</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>215.61586546681</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23191,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.8349197050291</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0170666797881</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I10" t="n">
-        <v>168.8870673881104</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>129.7236433787886</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>82.61516433249618</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
-        <v>52.09548622449577</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M10" t="n">
-        <v>46.24466908004986</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>37.04796687835205</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>56.43963860165199</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>74.70280003544025</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.4497818638882</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
-        <v>209.4615981681609</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S10" t="n">
-        <v>237.7758219951765</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T10" t="n">
-        <v>224.3347225012506</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23270,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H11" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I11" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J11" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S11" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T11" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H12" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I12" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J12" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S12" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T12" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H13" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I13" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J13" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K13" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L13" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R13" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S13" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T13" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H14" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I14" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J14" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S14" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T14" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H15" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I15" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J15" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S15" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T15" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H16" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I16" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J16" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K16" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L16" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R16" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S16" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T16" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H17" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I17" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J17" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S17" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T17" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H18" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I18" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J18" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S18" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T18" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H19" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I19" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J19" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K19" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L19" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R19" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S19" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T19" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H20" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I20" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J20" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S20" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T20" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H21" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I21" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J21" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S21" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T21" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H22" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I22" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J22" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K22" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L22" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q22" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R22" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S22" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T22" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H23" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I23" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J23" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S23" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T23" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H24" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I24" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J24" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S24" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T24" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H25" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I25" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J25" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K25" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L25" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q25" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R25" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S25" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T25" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H26" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I26" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J26" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S26" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T26" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H27" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I27" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J27" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S27" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T27" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H28" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I28" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J28" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K28" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L28" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R28" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S28" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T28" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H29" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I29" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J29" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S29" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T29" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H30" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I30" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J30" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S30" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T30" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H31" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I31" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J31" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K31" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L31" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R31" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S31" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T31" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H32" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I32" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J32" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S32" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T32" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H33" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I33" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J33" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S33" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T33" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H34" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I34" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J34" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K34" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L34" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q34" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R34" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S34" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T34" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H35" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I35" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J35" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S35" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T35" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H36" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I36" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J36" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S36" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T36" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H37" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I37" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J37" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K37" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L37" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q37" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R37" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S37" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T37" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H38" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I38" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J38" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S38" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T38" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H39" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I39" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J39" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S39" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T39" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H40" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I40" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J40" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K40" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L40" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R40" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S40" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T40" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.7332227459356</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H41" t="n">
-        <v>345.9465772016394</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I41" t="n">
-        <v>236.9636759856512</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J41" t="n">
-        <v>67.87410050885586</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>188.2889663317739</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S41" t="n">
-        <v>225.1254414951025</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T41" t="n">
-        <v>222.0064618261584</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H42" t="n">
-        <v>125.193201766633</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I42" t="n">
-        <v>105.430061510991</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J42" t="n">
-        <v>47.16991341427537</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>131.2333694413202</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S42" t="n">
-        <v>190.5477680960885</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T42" t="n">
-        <v>214.7445863344682</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.6536978729753</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H43" t="n">
-        <v>165.4058398457096</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I43" t="n">
-        <v>163.4372326568916</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J43" t="n">
-        <v>116.9112598525832</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K43" t="n">
-        <v>61.5604823902426</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L43" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>52.78484318413026</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q43" t="n">
-        <v>123.2749246361811</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R43" t="n">
-        <v>201.3132056105407</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S43" t="n">
-        <v>234.6176197038384</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T43" t="n">
-        <v>223.5604110370206</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>418.7332227459356</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H44" t="n">
-        <v>345.9465772016394</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I44" t="n">
-        <v>236.9636759856512</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J44" t="n">
-        <v>67.87410050885586</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.37829432236464</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>188.2889663317739</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S44" t="n">
-        <v>225.1254414951025</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T44" t="n">
-        <v>222.0064618261584</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1421454753127</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.6884511582035</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H45" t="n">
-        <v>125.193201766633</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I45" t="n">
-        <v>105.430061510991</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J45" t="n">
-        <v>47.16991341427537</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>131.2333694413202</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S45" t="n">
-        <v>190.5477680960885</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T45" t="n">
-        <v>214.7445863344682</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2243751997555</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6536978729753</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H46" t="n">
-        <v>165.4058398457096</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I46" t="n">
-        <v>163.4372326568916</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J46" t="n">
-        <v>116.9112598525832</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K46" t="n">
-        <v>61.5604823902426</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L46" t="n">
-        <v>25.15274221169333</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>17.83732317001242</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>9.31608416051521</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>30.82475637644394</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>52.78484318413026</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.2749246361811</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R46" t="n">
-        <v>201.3132056105407</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S46" t="n">
-        <v>234.6176197038384</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T46" t="n">
-        <v>223.5604110370206</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6539891292468</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>357306.350529671</v>
+        <v>343752.7023853004</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>357306.350529671</v>
+        <v>343752.7023853004</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>392282.1822546553</v>
+        <v>420726.3396251783</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>392282.1822546553</v>
+        <v>422001.157855334</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>63462.03736344008</v>
       </c>
       <c r="C2" t="n">
-        <v>66492.91400965818</v>
+        <v>63462.03736344008</v>
       </c>
       <c r="D2" t="n">
-        <v>66492.91400965818</v>
+        <v>63462.03736344008</v>
       </c>
       <c r="E2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.79498487279</v>
       </c>
       <c r="F2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.79498487279</v>
       </c>
       <c r="G2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.79498487279</v>
       </c>
       <c r="H2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.79498487277</v>
       </c>
       <c r="I2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.7949848728</v>
       </c>
       <c r="J2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.79498487277</v>
       </c>
       <c r="K2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.79498487279</v>
       </c>
       <c r="L2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.7949848728</v>
       </c>
       <c r="M2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.79498487279</v>
       </c>
       <c r="N2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.79498487279</v>
       </c>
       <c r="O2" t="n">
-        <v>74933.73104571657</v>
+        <v>83928.79498487279</v>
       </c>
       <c r="P2" t="n">
-        <v>74933.73104571657</v>
+        <v>84560.85108676575</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>24387.74936889624</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80738.58159809028</v>
+        <v>255620.0170480048</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14486.33099358795</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37019.52179534004</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="C4" t="n">
-        <v>35923.93281632339</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="D4" t="n">
-        <v>35923.93281632339</v>
+        <v>37019.52179534005</v>
       </c>
       <c r="E4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="F4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="G4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="H4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="I4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="J4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="K4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="L4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="M4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="N4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="O4" t="n">
-        <v>30102.48220035836</v>
+        <v>15070.49719829297</v>
       </c>
       <c r="P4" t="n">
-        <v>30102.48220035836</v>
+        <v>13290.37760263282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34211.44775812258</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34211.44775812258</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="F5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="G5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="H5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="I5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="J5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="K5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="L5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="M5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="N5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="O5" t="n">
-        <v>2774.654960533286</v>
+        <v>6936.140855394496</v>
       </c>
       <c r="P5" t="n">
-        <v>2774.654960533286</v>
+        <v>7410.620126973125</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7185.084431899959</v>
+        <v>-7185.084431899966</v>
       </c>
       <c r="C6" t="n">
-        <v>-28030.21593368403</v>
+        <v>-7185.084431899966</v>
       </c>
       <c r="D6" t="n">
-        <v>-3642.466564787785</v>
+        <v>-7185.084431899966</v>
       </c>
       <c r="E6" t="n">
-        <v>-38681.98771326536</v>
+        <v>-193697.8601168194</v>
       </c>
       <c r="F6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118532</v>
       </c>
       <c r="G6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118532</v>
       </c>
       <c r="H6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118531</v>
       </c>
       <c r="I6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118534</v>
       </c>
       <c r="J6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118531</v>
       </c>
       <c r="K6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118532</v>
       </c>
       <c r="L6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118534</v>
       </c>
       <c r="M6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118532</v>
       </c>
       <c r="N6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118532</v>
       </c>
       <c r="O6" t="n">
-        <v>42056.59388482493</v>
+        <v>61922.15693118532</v>
       </c>
       <c r="P6" t="n">
-        <v>42056.59388482493</v>
+        <v>49373.52236357186</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>26.78200725332938</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.78200725332938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="F3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="G3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="H3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="I3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="J3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="K3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="L3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="M3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="N3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="O3" t="n">
-        <v>127.2777504831783</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="P3" t="n">
-        <v>127.2777504831783</v>
+        <v>339.9367030721617</v>
       </c>
     </row>
     <row r="4">
@@ -26960,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>26.78200725332938</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100.4957432298489</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>21.76510420085452</v>
       </c>
     </row>
     <row r="4">
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1076663608174045</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.102638117721244</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>4.150807375412989</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.138047791426191</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>13.69556484482692</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>18.90527087887908</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>19.21117792655154</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>18.14057055117347</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>15.48255726849379</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.62675572172049</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.76319703769629</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.453447197126607</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4713094944781883</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.008613308865392355</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05760658163923679</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.55635830162105</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.983384499421091</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5.442558662678946</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>9.30219963250781</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>12.50795536864218</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>14.59619395306451</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>14.9825117746715</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13.70607120255999</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>11.00033048863637</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.353429614159418</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.576661270548404</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.070016987904244</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2321949496774499</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003789906686791895</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04829542291583986</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4293902146517402</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.452375081869075</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.414486400149878</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.611050044222121</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>7.180212239687683</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>7.570527066707514</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>7.390516854021208</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>6.826338504504349</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.841111877021211</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.044083095252736</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.171537834015854</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8416575066333181</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2063531706404066</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00263429579540945</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1076663608174045</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.102638117721244</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.150807375412989</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.138047791426191</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13.69556484482692</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>18.90527087887908</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>19.21117792655154</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>18.14057055117347</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.48255726849379</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.62675572172049</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.763197037696289</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.453447197126606</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4713094944781883</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008613308865392355</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05760658163923678</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.55635830162105</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.983384499421091</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.442558662678946</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9.30219963250781</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>12.50795536864218</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>14.59619395306451</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14.9825117746715</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.70607120255999</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.00033048863637</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.353429614159419</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.576661270548404</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.070016987904244</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2321949496774499</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003789906686791895</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04829542291583986</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4293902146517402</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.452375081869075</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.414486400149878</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.611050044222121</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.180212239687683</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>7.570527066707514</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>7.390516854021208</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>6.826338504504349</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.841111877021211</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.044083095252736</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.171537834015854</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.841657506633318</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2063531706404066</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00263429579540945</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H11" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I11" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J11" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K11" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L11" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M11" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N11" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O11" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P11" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R11" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S11" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T11" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H12" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I12" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J12" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K12" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L12" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M12" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N12" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P12" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R12" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S12" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T12" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H13" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I13" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J13" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K13" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L13" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M13" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N13" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O13" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P13" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R13" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S13" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H14" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I14" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J14" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K14" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L14" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M14" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N14" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O14" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P14" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q14" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R14" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S14" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T14" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H15" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I15" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J15" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K15" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L15" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M15" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N15" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P15" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R15" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S15" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T15" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H16" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I16" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J16" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K16" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L16" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M16" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N16" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O16" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P16" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R16" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S16" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H17" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I17" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J17" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K17" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L17" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M17" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N17" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O17" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P17" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q17" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R17" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S17" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T17" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H18" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I18" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J18" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K18" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L18" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M18" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N18" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P18" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R18" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S18" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T18" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H19" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I19" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J19" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K19" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L19" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M19" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N19" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O19" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P19" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R19" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S19" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H20" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I20" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J20" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K20" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L20" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M20" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N20" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O20" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P20" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q20" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R20" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S20" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T20" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H21" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I21" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J21" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K21" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L21" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M21" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N21" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P21" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R21" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S21" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T21" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H22" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I22" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J22" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K22" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L22" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M22" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N22" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O22" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P22" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R22" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S22" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H23" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I23" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J23" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K23" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L23" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M23" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N23" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O23" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P23" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q23" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R23" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S23" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T23" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H24" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I24" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J24" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K24" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L24" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M24" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N24" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P24" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R24" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S24" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T24" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H25" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I25" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J25" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K25" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L25" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M25" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N25" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O25" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P25" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R25" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S25" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H26" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I26" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J26" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K26" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L26" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M26" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N26" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O26" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P26" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R26" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S26" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T26" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H27" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I27" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J27" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K27" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L27" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M27" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N27" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P27" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R27" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S27" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T27" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H28" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I28" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J28" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K28" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L28" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M28" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N28" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O28" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P28" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R28" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S28" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H29" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I29" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J29" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K29" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L29" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M29" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N29" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O29" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P29" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404725</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R29" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241105</v>
       </c>
       <c r="S29" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T29" t="n">
-        <v>2.239832573829599</v>
+        <v>5.599180599232749</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.6843690994590379</v>
       </c>
       <c r="H30" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I30" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J30" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K30" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L30" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M30" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N30" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P30" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R30" t="n">
-        <v>16.99758335697993</v>
+        <v>42.4909165436059</v>
       </c>
       <c r="S30" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T30" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384226</v>
       </c>
       <c r="H31" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641615</v>
       </c>
       <c r="I31" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J31" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K31" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L31" t="n">
-        <v>34.12295625249012</v>
+        <v>85.3012840646124</v>
       </c>
       <c r="M31" t="n">
-        <v>35.97787297674495</v>
+        <v>89.9382439235729</v>
       </c>
       <c r="N31" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O31" t="n">
-        <v>32.4412207297124</v>
+        <v>81.09724621723089</v>
       </c>
       <c r="P31" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R31" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S31" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H32" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I32" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J32" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K32" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L32" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M32" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N32" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O32" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P32" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q32" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R32" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S32" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T32" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H33" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I33" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J33" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K33" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L33" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M33" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N33" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P33" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R33" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S33" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T33" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H34" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I34" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J34" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K34" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L34" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M34" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N34" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O34" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P34" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R34" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S34" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H35" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I35" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J35" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K35" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L35" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M35" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N35" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O35" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P35" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q35" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R35" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S35" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T35" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H36" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I36" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J36" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K36" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L36" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M36" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N36" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P36" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R36" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S36" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T36" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H37" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I37" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J37" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K37" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L37" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M37" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N37" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O37" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P37" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R37" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S37" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H38" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I38" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J38" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K38" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L38" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M38" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N38" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O38" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P38" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R38" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S38" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T38" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H39" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I39" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J39" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K39" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L39" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M39" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N39" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P39" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R39" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S39" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T39" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H40" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I40" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J40" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K40" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L40" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M40" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N40" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O40" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P40" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R40" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S40" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H41" t="n">
-        <v>5.24013371712904</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I41" t="n">
-        <v>19.7261325648351</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J41" t="n">
-        <v>43.4272963821976</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K41" t="n">
-        <v>65.08625991165664</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L41" t="n">
-        <v>80.74526074120264</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M41" t="n">
-        <v>89.84466052072111</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N41" t="n">
-        <v>91.29844105764707</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O41" t="n">
-        <v>86.21052897174916</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P41" t="n">
-        <v>73.5786919263081</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q41" t="n">
-        <v>55.25453337684549</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R41" t="n">
-        <v>32.14114972377467</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S41" t="n">
-        <v>11.65966528295648</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T41" t="n">
-        <v>2.239832573829599</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H42" t="n">
-        <v>2.64401515626376</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I42" t="n">
-        <v>9.425757936725939</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J42" t="n">
-        <v>25.86500021847305</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K42" t="n">
-        <v>44.20740508999221</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L42" t="n">
-        <v>59.44231167612963</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M42" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N42" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>65.13618991000916</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P42" t="n">
-        <v>52.27753491072279</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.94614764209831</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R42" t="n">
-        <v>16.99758335697993</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S42" t="n">
-        <v>5.085106351851506</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T42" t="n">
-        <v>1.103474082019253</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H43" t="n">
-        <v>2.040617048730302</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I43" t="n">
-        <v>6.902209813087767</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J43" t="n">
-        <v>16.22686992635536</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K43" t="n">
-        <v>26.6657319864757</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L43" t="n">
-        <v>34.12295625249012</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M43" t="n">
-        <v>35.97787297674495</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N43" t="n">
-        <v>35.12239957185805</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O43" t="n">
-        <v>32.4412207297124</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P43" t="n">
-        <v>27.75906872833119</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.21894032295992</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R43" t="n">
-        <v>10.31993039163606</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S43" t="n">
-        <v>3.999859797971355</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5116693486760931</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H44" t="n">
-        <v>5.24013371712904</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I44" t="n">
-        <v>19.7261325648351</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J44" t="n">
-        <v>43.4272963821976</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K44" t="n">
-        <v>65.08625991165664</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L44" t="n">
-        <v>80.74526074120264</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M44" t="n">
-        <v>89.84466052072111</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N44" t="n">
-        <v>91.29844105764707</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O44" t="n">
-        <v>86.21052897174916</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P44" t="n">
-        <v>73.5786919263081</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q44" t="n">
-        <v>55.25453337684549</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R44" t="n">
-        <v>32.14114972377467</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S44" t="n">
-        <v>11.65966528295648</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T44" t="n">
-        <v>2.239832573829599</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04093354789408744</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2737672368883457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H45" t="n">
-        <v>2.64401515626376</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I45" t="n">
-        <v>9.425757936725939</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J45" t="n">
-        <v>25.86500021847305</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K45" t="n">
-        <v>44.20740508999221</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L45" t="n">
-        <v>59.44231167612963</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M45" t="n">
-        <v>69.36637401333215</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N45" t="n">
-        <v>71.20229552737725</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>65.13618991000916</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>52.27753491072279</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.94614764209831</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R45" t="n">
-        <v>16.99758335697993</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S45" t="n">
-        <v>5.085106351851506</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T45" t="n">
-        <v>1.103474082019253</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01801100242686486</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2295172549696657</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H46" t="n">
-        <v>2.040617048730302</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I46" t="n">
-        <v>6.902209813087767</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J46" t="n">
-        <v>16.22686992635536</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K46" t="n">
-        <v>26.6657319864757</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L46" t="n">
-        <v>34.12295625249012</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M46" t="n">
-        <v>35.97787297674495</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N46" t="n">
-        <v>35.12239957185805</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O46" t="n">
-        <v>32.4412207297124</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P46" t="n">
-        <v>27.75906872833119</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.21894032295992</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R46" t="n">
-        <v>10.31993039163606</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S46" t="n">
-        <v>3.999859797971355</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9806646348703896</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01251912299834542</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_7_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163373.1730173262</v>
+        <v>32155.74781093133</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4588310.722907443</v>
+        <v>4719283.188204545</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23154748.01543935</v>
+        <v>23062964.11247379</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4643493.355989313</v>
+        <v>4683500.775478911</v>
       </c>
     </row>
     <row r="11">
@@ -8224,10 +8224,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N5" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O5" t="n">
         <v>246.758517458259</v>
@@ -8297,22 +8297,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L6" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M6" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N6" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O6" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8458,13 +8458,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L8" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M8" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N8" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O8" t="n">
         <v>246.758517458259</v>
@@ -8534,22 +8534,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8692,25 +8692,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L11" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M11" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N11" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O11" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P11" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8771,10 +8771,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L12" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P12" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8853,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M13" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N13" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O13" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8929,25 +8929,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L14" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M14" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N14" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O14" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P14" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9008,10 +9008,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L15" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P15" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9090,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M16" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N16" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O16" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9166,25 +9166,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L17" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M17" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N17" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O17" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P17" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9245,10 +9245,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L18" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P18" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9327,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M19" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N19" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O19" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9403,25 +9403,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L20" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M20" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N20" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O20" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P20" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9482,10 +9482,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L21" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P21" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M22" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N22" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O22" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9640,25 +9640,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L23" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M23" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N23" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O23" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P23" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R23" t="n">
         <v>42.58424007769262</v>
@@ -9719,10 +9719,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L24" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P24" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M25" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N25" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O25" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9877,25 +9877,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L26" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M26" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N26" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O26" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P26" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9956,10 +9956,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L27" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P27" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q27" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M28" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N28" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O28" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10114,25 +10114,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L29" t="n">
-        <v>85.78632439852493</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M29" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N29" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O29" t="n">
-        <v>65.20892354519972</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P29" t="n">
-        <v>98.17069248095632</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10193,10 +10193,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L30" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P30" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>79.25802099849831</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M31" t="n">
-        <v>79.55121249250526</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N31" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O31" t="n">
-        <v>87.8197306940173</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10351,25 +10351,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L32" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M32" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N32" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O32" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P32" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10430,10 +10430,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L33" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P33" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q33" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M34" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N34" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O34" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10588,25 +10588,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L35" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M35" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N35" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O35" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P35" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10667,10 +10667,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L36" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P36" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q36" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M37" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N37" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O37" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10825,25 +10825,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L38" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M38" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N38" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O38" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P38" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10904,10 +10904,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L39" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P39" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q39" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M40" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N40" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O40" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11062,25 +11062,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>105.8056161847214</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L41" t="n">
-        <v>85.7863243985249</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M41" t="n">
-        <v>56.42683163149823</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N41" t="n">
-        <v>51.65417350500871</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O41" t="n">
-        <v>65.2089235451997</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P41" t="n">
-        <v>98.17069248095629</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.0864964302902</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11141,10 +11141,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>57.65595408036968</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L42" t="n">
-        <v>20.44120180197424</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>11.13860007154486</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P42" t="n">
-        <v>32.7642952373794</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q42" t="n">
-        <v>83.41864916277152</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>79.2580209984983</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M43" t="n">
-        <v>79.55121249250524</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N43" t="n">
-        <v>67.97665074265473</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O43" t="n">
-        <v>87.81973069401728</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>104.889258789408</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>94.6755543817487</v>
+        <v>101.6976762459175</v>
       </c>
       <c r="L44" t="n">
-        <v>71.97849854454961</v>
+        <v>80.69006165554137</v>
       </c>
       <c r="M44" t="n">
-        <v>41.06296488573622</v>
+        <v>50.7562573852241</v>
       </c>
       <c r="N44" t="n">
-        <v>36.04170333287215</v>
+        <v>45.89184343902701</v>
       </c>
       <c r="O44" t="n">
-        <v>50.4665106791827</v>
+        <v>59.76771866433623</v>
       </c>
       <c r="P44" t="n">
-        <v>85.5883841775869</v>
+        <v>93.52675000186335</v>
       </c>
       <c r="Q44" t="n">
-        <v>123.6377068975464</v>
+        <v>129.5990890302214</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11378,10 +11378,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>50.09627633166345</v>
+        <v>54.865789686125</v>
       </c>
       <c r="L45" t="n">
-        <v>10.27628214666007</v>
+        <v>16.68948144623957</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>7.027508785057847</v>
       </c>
       <c r="P45" t="n">
-        <v>23.82458668363594</v>
+        <v>29.46478203976346</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.442690741435</v>
+        <v>81.213011969896</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>73.42283224274789</v>
+        <v>77.10433979128307</v>
       </c>
       <c r="M46" t="n">
-        <v>73.3988241034014</v>
+        <v>77.28045762788422</v>
       </c>
       <c r="N46" t="n">
-        <v>61.97055239817956</v>
+        <v>65.75988935332771</v>
       </c>
       <c r="O46" t="n">
-        <v>82.27212675770768</v>
+        <v>85.77219275774588</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -22798,22 +22798,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H5" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I5" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J5" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K5" t="n">
-        <v>58.46339092876153</v>
+        <v>44.76782608393461</v>
       </c>
       <c r="L5" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P5" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R5" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S5" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T5" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U5" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22877,16 +22877,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H6" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I6" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J6" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R6" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S6" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T6" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22956,49 +22956,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H7" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I7" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J7" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K7" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L7" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M7" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N7" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O7" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P7" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q7" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R7" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S7" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T7" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23035,22 +23035,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H8" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J8" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K8" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R8" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T8" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23114,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23193,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H10" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I10" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J10" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K10" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L10" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M10" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N10" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O10" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P10" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R10" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S10" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T10" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23272,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I11" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J11" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S11" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T11" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H12" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I12" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J12" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S12" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T12" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H13" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I13" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J13" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K13" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R13" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S13" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T13" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H14" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I14" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J14" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S14" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T14" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H15" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I15" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J15" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S15" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T15" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H16" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I16" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J16" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K16" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R16" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S16" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T16" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H17" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I17" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J17" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S17" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T17" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H18" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I18" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J18" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S18" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T18" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H19" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I19" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J19" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K19" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R19" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S19" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T19" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H20" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I20" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J20" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S20" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T20" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H21" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I21" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J21" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S21" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T21" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H22" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I22" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J22" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K22" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q22" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R22" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S22" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T22" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H23" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I23" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J23" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S23" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H24" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I24" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J24" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S24" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T24" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H25" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I25" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J25" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K25" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R25" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S25" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T25" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H26" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I26" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J26" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S26" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H27" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I27" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J27" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S27" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T27" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H28" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I28" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J28" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K28" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q28" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R28" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S28" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T28" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H29" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I29" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J29" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S29" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H30" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I30" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J30" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S30" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T30" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H31" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I31" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J31" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K31" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R31" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S31" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T31" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H32" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I32" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J32" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S32" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H33" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I33" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J33" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S33" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T33" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H34" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I34" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J34" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K34" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R34" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S34" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T34" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H35" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I35" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J35" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S35" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H36" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J36" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S36" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T36" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H37" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I37" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J37" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K37" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R37" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S37" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T37" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H38" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I38" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J38" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S38" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H39" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J39" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S39" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T39" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H40" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I40" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J40" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K40" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R40" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S40" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T40" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.9658102901039</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H41" t="n">
-        <v>338.0873143883533</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I41" t="n">
-        <v>207.3780072822006</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J41" t="n">
-        <v>2.740927585712328</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>140.0829936531375</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S41" t="n">
-        <v>207.6380301578382</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6471138007553</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H42" t="n">
-        <v>121.2276521991739</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I42" t="n">
-        <v>91.29311141809657</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J42" t="n">
-        <v>8.377041828155711</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>105.7400362546942</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S42" t="n">
-        <v>182.9210185873741</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T42" t="n">
-        <v>213.0895726866503</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H43" t="n">
-        <v>162.3452794567983</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I43" t="n">
-        <v>153.0851531410239</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J43" t="n">
-        <v>92.57385888677204</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K43" t="n">
-        <v>21.56665644925431</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>11.15120779141444</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.44995352957361</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R43" t="n">
-        <v>185.8351568543492</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S43" t="n">
-        <v>228.6185458126902</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T43" t="n">
-        <v>222.0895895822268</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25879,13 +25879,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.8783123837688</v>
+        <v>417.9335161168677</v>
       </c>
       <c r="H44" t="n">
-        <v>337.191226455099</v>
+        <v>337.7565816866972</v>
       </c>
       <c r="I44" t="n">
-        <v>204.0047442482169</v>
+        <v>206.1329861685091</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>134.5867032943157</v>
+        <v>138.0543947935843</v>
       </c>
       <c r="S44" t="n">
-        <v>205.6441716172273</v>
+        <v>206.9021266852166</v>
       </c>
       <c r="T44" t="n">
-        <v>218.2640917157734</v>
+        <v>218.5057460574135</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0781689449873</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.2310337884838</v>
+        <v>148.2605703896413</v>
       </c>
       <c r="H45" t="n">
-        <v>120.7755129590769</v>
+        <v>121.0607743439406</v>
       </c>
       <c r="I45" t="n">
-        <v>89.68126172020311</v>
+        <v>90.69820171619743</v>
       </c>
       <c r="J45" t="n">
-        <v>3.954003058433003</v>
+        <v>6.744564135339218</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>102.8333681880216</v>
+        <v>104.6672283897153</v>
       </c>
       <c r="S45" t="n">
-        <v>182.0514410751984</v>
+        <v>182.6000704870501</v>
       </c>
       <c r="T45" t="n">
-        <v>212.9008733398524</v>
+        <v>213.0199265699567</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1962251491922</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.2702145158476</v>
+        <v>168.2949770100594</v>
       </c>
       <c r="H46" t="n">
-        <v>161.9963241796108</v>
+        <v>162.2164852645116</v>
       </c>
       <c r="I46" t="n">
-        <v>151.9048422443612</v>
+        <v>152.6495179793835</v>
       </c>
       <c r="J46" t="n">
-        <v>89.79898650365654</v>
+        <v>91.54969484442688</v>
       </c>
       <c r="K46" t="n">
-        <v>17.00668871668184</v>
+        <v>19.88364031691906</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>6.404274245706759</v>
+        <v>9.399185363825382</v>
       </c>
       <c r="Q46" t="n">
-        <v>91.16342279524457</v>
+        <v>93.23694401510255</v>
       </c>
       <c r="R46" t="n">
-        <v>184.0703993891455</v>
+        <v>185.183811174339</v>
       </c>
       <c r="S46" t="n">
-        <v>227.9345506528043</v>
+        <v>228.3660933928399</v>
       </c>
       <c r="T46" t="n">
-        <v>221.9218912383841</v>
+        <v>222.0276946227434</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6344225367242</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>343752.7023853004</v>
+        <v>357306.350529671</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>343752.7023853004</v>
+        <v>367210.0595616101</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>420726.3396251783</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>422001.157855334</v>
+        <v>421420.5399634028</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>63462.03736344008</v>
       </c>
       <c r="C2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965818</v>
       </c>
       <c r="D2" t="n">
-        <v>63462.03736344008</v>
+        <v>68782.3493904442</v>
       </c>
       <c r="E2" t="n">
-        <v>83928.79498487279</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="F2" t="n">
-        <v>83928.79498487279</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="G2" t="n">
-        <v>83928.79498487279</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="H2" t="n">
-        <v>83928.79498487277</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="I2" t="n">
-        <v>83928.7949848728</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="J2" t="n">
-        <v>83928.79498487277</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="K2" t="n">
-        <v>83928.79498487279</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="L2" t="n">
-        <v>83928.7949848728</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="M2" t="n">
-        <v>83928.79498487279</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="N2" t="n">
-        <v>83928.79498487279</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="O2" t="n">
-        <v>83928.79498487279</v>
+        <v>84203.37296691751</v>
       </c>
       <c r="P2" t="n">
-        <v>84560.85108676575</v>
+        <v>84203.37296691751</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>24387.74936889624</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>20003.33720355308</v>
       </c>
       <c r="E3" t="n">
-        <v>255620.0170480048</v>
+        <v>221791.9948361786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>14486.33099358795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37019.52179534005</v>
+        <v>37019.52179534004</v>
       </c>
       <c r="C4" t="n">
-        <v>37019.52179534005</v>
+        <v>35923.93281632339</v>
       </c>
       <c r="D4" t="n">
-        <v>37019.52179534005</v>
+        <v>34762.03750779631</v>
       </c>
       <c r="E4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="F4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="G4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="H4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="I4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="J4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="K4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="L4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="M4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="N4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="O4" t="n">
-        <v>15070.49719829297</v>
+        <v>14437.57062330154</v>
       </c>
       <c r="P4" t="n">
-        <v>13290.37760263282</v>
+        <v>14437.57062330154</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>34211.44775812258</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>34720.63227756931</v>
       </c>
       <c r="E5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="F5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="G5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="H5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="I5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="J5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="K5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="L5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="M5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="N5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="O5" t="n">
-        <v>6936.140855394496</v>
+        <v>7111.264083311508</v>
       </c>
       <c r="P5" t="n">
-        <v>7410.620126973125</v>
+        <v>7111.264083311508</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7185.084431899966</v>
+        <v>-23989.54503974335</v>
       </c>
       <c r="C6" t="n">
-        <v>-7185.084431899966</v>
+        <v>-44582.10348767591</v>
       </c>
       <c r="D6" t="n">
-        <v>-7185.084431899966</v>
+        <v>-37064.75887073421</v>
       </c>
       <c r="E6" t="n">
-        <v>-193697.8601168194</v>
+        <v>-174213.4725500944</v>
       </c>
       <c r="F6" t="n">
-        <v>61922.15693118532</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="G6" t="n">
-        <v>61922.15693118532</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="H6" t="n">
-        <v>61922.15693118531</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="I6" t="n">
-        <v>61922.15693118534</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="J6" t="n">
-        <v>61922.15693118531</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="K6" t="n">
-        <v>61922.15693118532</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="L6" t="n">
-        <v>61922.15693118534</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="M6" t="n">
-        <v>61922.15693118532</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="N6" t="n">
-        <v>61922.15693118532</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="O6" t="n">
-        <v>61922.15693118532</v>
+        <v>47578.52228608419</v>
       </c>
       <c r="P6" t="n">
-        <v>49373.52236357186</v>
+        <v>47578.52228608419</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="E3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="F3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="G3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="H3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="I3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="J3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="K3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="L3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="M3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="N3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="O3" t="n">
-        <v>318.1715988713071</v>
+        <v>326.2047744638306</v>
       </c>
       <c r="P3" t="n">
-        <v>339.9367030721617</v>
+        <v>326.2047744638306</v>
       </c>
     </row>
     <row r="4">
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.35708804801542</v>
       </c>
       <c r="E3" t="n">
-        <v>318.1715988713071</v>
+        <v>276.0656791624858</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>21.76510420085452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.763197037696289</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.453447197126606</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.05760658163923678</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>7.353429614159419</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.841657506633318</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H11" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I11" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J11" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K11" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L11" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N11" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P11" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R11" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S11" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T11" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H12" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I12" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J12" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K12" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L12" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M12" t="n">
         <v>173.4035213848624</v>
@@ -31855,25 +31855,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P12" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R12" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S12" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T12" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H13" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I13" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J13" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K13" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L13" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M13" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N13" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O13" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P13" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R13" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S13" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T13" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H14" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I14" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J14" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K14" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L14" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M14" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N14" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P14" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R14" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S14" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T14" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H15" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I15" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J15" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K15" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L15" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M15" t="n">
         <v>173.4035213848624</v>
@@ -32092,25 +32092,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P15" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R15" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S15" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T15" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H16" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I16" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J16" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K16" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L16" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M16" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N16" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O16" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P16" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R16" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S16" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T16" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H17" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I17" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J17" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K17" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L17" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N17" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O17" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P17" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R17" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S17" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T17" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H18" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I18" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J18" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K18" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L18" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M18" t="n">
         <v>173.4035213848624</v>
@@ -32329,25 +32329,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P18" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R18" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S18" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T18" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H19" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I19" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J19" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K19" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L19" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M19" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N19" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O19" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P19" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R19" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S19" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T19" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H20" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I20" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J20" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K20" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L20" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M20" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N20" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O20" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P20" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R20" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S20" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T20" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H21" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I21" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J21" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K21" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L21" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M21" t="n">
         <v>173.4035213848624</v>
@@ -32566,25 +32566,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P21" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R21" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S21" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T21" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H22" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I22" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J22" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K22" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L22" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M22" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N22" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O22" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P22" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R22" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S22" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T22" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H23" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I23" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J23" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K23" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L23" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N23" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O23" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P23" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R23" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S23" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T23" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H24" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I24" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J24" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K24" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L24" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M24" t="n">
         <v>173.4035213848624</v>
@@ -32803,25 +32803,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P24" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R24" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S24" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T24" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H25" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I25" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J25" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K25" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L25" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M25" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N25" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O25" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P25" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R25" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S25" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T25" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H26" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I26" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J26" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K26" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L26" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N26" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O26" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P26" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R26" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S26" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T26" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H27" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I27" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J27" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K27" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L27" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M27" t="n">
         <v>173.4035213848624</v>
@@ -33040,25 +33040,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P27" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R27" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S27" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T27" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H28" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I28" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J28" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K28" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L28" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M28" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N28" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O28" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P28" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R28" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S28" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T28" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H29" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I29" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J29" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K29" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L29" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N29" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O29" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P29" t="n">
-        <v>183.9335623404725</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R29" t="n">
-        <v>80.34712240241105</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S29" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T29" t="n">
-        <v>5.599180599232749</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6843690994590379</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H30" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I30" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J30" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K30" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L30" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M30" t="n">
         <v>173.4035213848624</v>
@@ -33277,25 +33277,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P30" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R30" t="n">
-        <v>42.4909165436059</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S30" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T30" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5737520635384226</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H31" t="n">
-        <v>5.101177437641615</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I31" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J31" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K31" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L31" t="n">
-        <v>85.3012840646124</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M31" t="n">
-        <v>89.9382439235729</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N31" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O31" t="n">
-        <v>81.09724621723089</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P31" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R31" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S31" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T31" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H32" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I32" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J32" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K32" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L32" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N32" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O32" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P32" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R32" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S32" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T32" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H33" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I33" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J33" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K33" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L33" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M33" t="n">
         <v>173.4035213848624</v>
@@ -33514,25 +33514,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P33" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R33" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S33" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T33" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H34" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I34" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J34" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K34" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L34" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M34" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N34" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O34" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P34" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R34" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S34" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T34" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H35" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I35" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J35" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K35" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L35" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N35" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O35" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P35" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R35" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S35" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T35" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H36" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I36" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J36" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K36" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L36" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M36" t="n">
         <v>173.4035213848624</v>
@@ -33751,25 +33751,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P36" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R36" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S36" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T36" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H37" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I37" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J37" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K37" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L37" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M37" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N37" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O37" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P37" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R37" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S37" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T37" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H38" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I38" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J38" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K38" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L38" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N38" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O38" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P38" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R38" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S38" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T38" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H39" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I39" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J39" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K39" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L39" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M39" t="n">
         <v>173.4035213848624</v>
@@ -33988,25 +33988,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P39" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R39" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S39" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T39" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H40" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I40" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J40" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K40" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L40" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M40" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N40" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O40" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P40" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R40" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S40" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T40" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.279081804507766</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H41" t="n">
-        <v>13.09939653041517</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I41" t="n">
-        <v>49.31180126828571</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J41" t="n">
-        <v>108.5604693053411</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K41" t="n">
-        <v>162.7040020901549</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L41" t="n">
-        <v>201.8487018648595</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5955729057745</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N41" t="n">
-        <v>228.2297640828322</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O41" t="n">
-        <v>215.5108943892581</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P41" t="n">
-        <v>183.9335623404726</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1264452165381</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R41" t="n">
-        <v>80.34712240241106</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S41" t="n">
-        <v>29.14707662022075</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T41" t="n">
-        <v>5.59918059923275</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H42" t="n">
-        <v>6.609564723722816</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I42" t="n">
-        <v>23.56270802962039</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J42" t="n">
-        <v>64.65787180459272</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K42" t="n">
-        <v>110.5106014683483</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L42" t="n">
-        <v>148.5951415294723</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M42" t="n">
         <v>173.4035213848624</v>
@@ -34225,25 +34225,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>162.8288181506773</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P42" t="n">
-        <v>130.6844818081035</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.35911522217475</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R42" t="n">
-        <v>42.49091654360591</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S42" t="n">
-        <v>12.7118558605659</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T42" t="n">
-        <v>2.758487729837086</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H43" t="n">
-        <v>5.101177437641616</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I43" t="n">
-        <v>17.25428932895548</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J43" t="n">
-        <v>40.56427089216648</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K43" t="n">
-        <v>66.65955792746399</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L43" t="n">
-        <v>85.30128406461242</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M43" t="n">
-        <v>89.93824392357291</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N43" t="n">
-        <v>87.79971350492977</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O43" t="n">
-        <v>81.0972462172309</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P43" t="n">
-        <v>69.39270412104702</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.04391142956737</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R43" t="n">
-        <v>25.79797914782761</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S43" t="n">
-        <v>9.998933689119598</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T43" t="n">
-        <v>2.451486089664169</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.36657971084286</v>
+        <v>1.311375977744042</v>
       </c>
       <c r="H44" t="n">
-        <v>13.99548446366944</v>
+        <v>13.43012923207117</v>
       </c>
       <c r="I44" t="n">
-        <v>52.68506430226941</v>
+        <v>50.55682238197722</v>
       </c>
       <c r="J44" t="n">
-        <v>115.9867447331493</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K44" t="n">
-        <v>173.8340638931276</v>
+        <v>166.8119420289588</v>
       </c>
       <c r="L44" t="n">
-        <v>215.6565277188348</v>
+        <v>206.944964607843</v>
       </c>
       <c r="M44" t="n">
-        <v>239.9594396515365</v>
+        <v>230.2661471520486</v>
       </c>
       <c r="N44" t="n">
-        <v>243.8422342549688</v>
+        <v>233.9920941488139</v>
       </c>
       <c r="O44" t="n">
-        <v>230.2533072552751</v>
+        <v>220.9520992701216</v>
       </c>
       <c r="P44" t="n">
-        <v>196.515870643842</v>
+        <v>188.5775048195655</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.575234749282</v>
+        <v>141.613852616607</v>
       </c>
       <c r="R44" t="n">
-        <v>85.84341276123287</v>
+        <v>82.37572126196423</v>
       </c>
       <c r="S44" t="n">
-        <v>31.1409351608317</v>
+        <v>29.88298009284238</v>
       </c>
       <c r="T44" t="n">
-        <v>5.982202684214623</v>
+        <v>5.740548342574546</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1049100782195233</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7311846066080459</v>
+        <v>0.7016480054505037</v>
       </c>
       <c r="H45" t="n">
-        <v>7.061703963819812</v>
+        <v>6.776442578956181</v>
       </c>
       <c r="I45" t="n">
-        <v>25.17455772751386</v>
+        <v>24.15761773151954</v>
       </c>
       <c r="J45" t="n">
-        <v>69.08091057431542</v>
+        <v>66.29034949740921</v>
       </c>
       <c r="K45" t="n">
-        <v>118.0702792170545</v>
+        <v>113.300765862593</v>
       </c>
       <c r="L45" t="n">
-        <v>158.7600611847865</v>
+        <v>152.3468618852069</v>
       </c>
       <c r="M45" t="n">
         <v>173.4035213848624</v>
@@ -34462,25 +34462,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>166.9399094371643</v>
       </c>
       <c r="P45" t="n">
-        <v>139.624190361847</v>
+        <v>133.9839950057194</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.33507364351127</v>
+        <v>89.56475241505026</v>
       </c>
       <c r="R45" t="n">
-        <v>45.39758461027851</v>
+        <v>43.5637244085848</v>
       </c>
       <c r="S45" t="n">
-        <v>13.58143337274154</v>
+        <v>13.03280396088983</v>
       </c>
       <c r="T45" t="n">
-        <v>2.947187076635061</v>
+        <v>2.828133846530757</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.04616105299016473</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.5882381178855961</v>
       </c>
       <c r="H46" t="n">
-        <v>5.450132714829087</v>
+        <v>5.229971629928304</v>
       </c>
       <c r="I46" t="n">
-        <v>18.43460022561821</v>
+        <v>17.68992449059593</v>
       </c>
       <c r="J46" t="n">
-        <v>43.33914327528198</v>
+        <v>41.58843493451165</v>
       </c>
       <c r="K46" t="n">
-        <v>71.21952566003647</v>
+        <v>68.34257405979925</v>
       </c>
       <c r="L46" t="n">
-        <v>91.13647282036283</v>
+        <v>87.45496527182765</v>
       </c>
       <c r="M46" t="n">
-        <v>96.09063231267676</v>
+        <v>92.20899878819394</v>
       </c>
       <c r="N46" t="n">
-        <v>93.80581184940493</v>
+        <v>90.01647489425679</v>
       </c>
       <c r="O46" t="n">
-        <v>86.6448501535405</v>
+        <v>83.1447841535023</v>
       </c>
       <c r="P46" t="n">
-        <v>74.13963766675469</v>
+        <v>71.14472654863607</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.33044216389641</v>
+        <v>49.25692094403843</v>
       </c>
       <c r="R46" t="n">
-        <v>27.56273661303133</v>
+        <v>26.4493248278378</v>
       </c>
       <c r="S46" t="n">
-        <v>10.68292884900547</v>
+        <v>10.25138610896989</v>
       </c>
       <c r="T46" t="n">
-        <v>2.619184433506819</v>
+        <v>2.513381049147547</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03208571552103256</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
